--- a/Timelog.xlsx
+++ b/Timelog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnb\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\HussPiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20484" windowHeight="5688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5685"/>
   </bookViews>
   <sheets>
     <sheet name="Timelog" sheetId="1" r:id="rId1"/>
@@ -404,54 +404,70 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -459,24 +475,8 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -797,137 +797,151 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="0.88671875" style="13" customWidth="1"/>
-    <col min="3" max="10" width="15.77734375" style="13" customWidth="1"/>
-    <col min="11" max="11" width="0.88671875" style="13" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="7.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0.85546875" style="9" customWidth="1"/>
+    <col min="3" max="10" width="15.7109375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="0.85546875" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="12" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="J2" s="20"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="22">
+      <c r="B4" s="10"/>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="15">
         <f>IF(C4="", 0, SUM(C4:I4))</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="24" t="str">
+        <v>8.5</v>
+      </c>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="16">
         <f>IF(C4="", "", C4)</f>
-        <v/>
-      </c>
-      <c r="D5" s="25" t="str">
+        <v>0</v>
+      </c>
+      <c r="D5" s="17">
         <f>IF(D4="", "", C5+D4)</f>
-        <v/>
-      </c>
-      <c r="E5" s="25" t="str">
+        <v>3</v>
+      </c>
+      <c r="E5" s="17">
         <f t="shared" ref="E5:I5" si="0">IF(E4="", "", D5+E4)</f>
-        <v/>
-      </c>
-      <c r="F5" s="25" t="str">
+        <v>6</v>
+      </c>
+      <c r="F5" s="17">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G5" s="25" t="str">
+        <v>6.5</v>
+      </c>
+      <c r="G5" s="17">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H5" s="25" t="str">
+        <v>7.5</v>
+      </c>
+      <c r="H5" s="17">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I5" s="25" t="str">
+        <v>7.5</v>
+      </c>
+      <c r="I5" s="17">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J5" s="26">
+        <v>8.5</v>
+      </c>
+      <c r="J5" s="18">
         <f>IF(C5="", 0, J4)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+        <v>8.5</v>
+      </c>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -935,48 +949,48 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="22">
+      <c r="J6" s="15">
         <f>IF(C6="", 0, SUM(C6:I6))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="24" t="str">
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="16" t="str">
         <f>IF(C6="", "", J5+C6)</f>
         <v/>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="26">
+      <c r="D7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="18">
         <f>IF(C7="", J5, J5+J6)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+        <v>8.5</v>
+      </c>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
         <v>3</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -984,48 +998,48 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="22">
+      <c r="J8" s="15">
         <f>IF(C8="", 0, SUM(C8:I8))</f>
         <v>0</v>
       </c>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="24" t="str">
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="16" t="str">
         <f>IF(C8="", "", J7+C8)</f>
         <v/>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="26">
+      <c r="D9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="18">
         <f>IF(C9="", J7, J7+J8)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+        <v>8.5</v>
+      </c>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
         <v>4</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1033,48 +1047,48 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="22">
+      <c r="J10" s="15">
         <f>IF(C10="", 0, SUM(C10:I10))</f>
         <v>0</v>
       </c>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="24" t="str">
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="16" t="str">
         <f>IF(C10="", "", J9+C10)</f>
         <v/>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="26">
+      <c r="D11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="18">
         <f>IF(C11="", J9, J9+J10)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+        <v>8.5</v>
+      </c>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
         <v>5</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1082,48 +1096,48 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="22">
+      <c r="J12" s="15">
         <f>IF(C12="", 0, SUM(C12:I12))</f>
         <v>0</v>
       </c>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="24" t="str">
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="16" t="str">
         <f>IF(C12="", "", J11+C12)</f>
         <v/>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="26">
+      <c r="D13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="18">
         <f>IF(C13="", J11, J11+J12)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+        <v>8.5</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
         <v>6</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1131,48 +1145,48 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="22">
+      <c r="J14" s="15">
         <f>IF(C14="", 0, SUM(C14:I14))</f>
         <v>0</v>
       </c>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="24" t="str">
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="16" t="str">
         <f>IF(C14="", "", J13+C14)</f>
         <v/>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="26">
+      <c r="D15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="18">
         <f>IF(C15="", J13, J13+J14)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+        <v>8.5</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
         <v>7</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1180,48 +1194,48 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="22">
+      <c r="J16" s="15">
         <f>IF(C16="", 0, SUM(C16:I16))</f>
         <v>0</v>
       </c>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="24" t="str">
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="16" t="str">
         <f>IF(C16="", "", J15+C16)</f>
         <v/>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="26">
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="18">
         <f>IF(C17="", J15, J15+J16)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+        <v>8.5</v>
+      </c>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
         <v>8</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1229,48 +1243,48 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="22">
+      <c r="J18" s="15">
         <f>IF(C18="", 0, SUM(C18:I18))</f>
         <v>0</v>
       </c>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="24" t="str">
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="16" t="str">
         <f>IF(C18="", "", J17+C18)</f>
         <v/>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="26">
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="18">
         <f>IF(C19="", J17, J17+J18)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
+        <v>8.5</v>
+      </c>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
         <v>9</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1278,48 +1292,48 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="22">
+      <c r="J20" s="15">
         <f>IF(C20="", 0, SUM(C20:I20))</f>
         <v>0</v>
       </c>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="24" t="str">
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="16" t="str">
         <f>IF(C20="", "", J19+C20)</f>
         <v/>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="26">
+      <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="18">
         <f>IF(C21="", J19, J19+J20)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
-        <v>10</v>
-      </c>
-      <c r="B22" s="15"/>
+        <v>8.5</v>
+      </c>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>10</v>
+      </c>
+      <c r="B22" s="10"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1327,48 +1341,48 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="22">
+      <c r="J22" s="15">
         <f>IF(C22="", 0, SUM(C22:I22))</f>
         <v>0</v>
       </c>
-      <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="24" t="str">
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="16" t="str">
         <f>IF(C22="", "", J21+C22)</f>
         <v/>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="26">
+      <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="18">
         <f>IF(C23="", J21, J21+J22)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="15"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
+        <v>8.5</v>
+      </c>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
         <v>11</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1376,48 +1390,48 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="22">
+      <c r="J24" s="15">
         <f>IF(C24="", 0, SUM(C24:I24))</f>
         <v>0</v>
       </c>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="23"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="24" t="str">
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="16" t="str">
         <f>IF(C24="", "", J23+C24)</f>
         <v/>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="26">
+      <c r="D25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="18">
         <f>IF(C25="", J23, J23+J24)</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="15"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
+        <v>8.5</v>
+      </c>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
         <v>12</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1425,48 +1439,48 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="22">
+      <c r="J26" s="15">
         <f>IF(C26="", 0, SUM(C26:I26))</f>
         <v>0</v>
       </c>
-      <c r="K26" s="15"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="23"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="24" t="str">
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="16" t="str">
         <f>IF(C26="", "", J25+C26)</f>
         <v/>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="26">
+      <c r="D27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="18">
         <f>IF(C27="", J25, J25+J26)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="15"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="21">
+        <v>8.5</v>
+      </c>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
         <v>13</v>
       </c>
-      <c r="B28" s="15"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1474,48 +1488,48 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="22">
+      <c r="J28" s="15">
         <f>IF(C28="", 0, SUM(C28:I28))</f>
         <v>0</v>
       </c>
-      <c r="K28" s="15"/>
-    </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="23"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="24" t="str">
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="16" t="str">
         <f>IF(C28="", "", J27+C28)</f>
         <v/>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="26">
+      <c r="D29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="18">
         <f>IF(C29="", J27, J27+J28)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="15"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
+        <v>8.5</v>
+      </c>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
         <v>14</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1523,48 +1537,48 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="22">
+      <c r="J30" s="15">
         <f>IF(C30="", 0, SUM(C30:I30))</f>
         <v>0</v>
       </c>
-      <c r="K30" s="15"/>
-    </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="23"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="24" t="str">
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="16" t="str">
         <f>IF(C30="", "", J29+C30)</f>
         <v/>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J31" s="26">
+      <c r="D31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="18">
         <f>IF(C31="", J29, J29+J30)</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="15"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="21">
+        <v>8.5</v>
+      </c>
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
         <v>15</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1572,48 +1586,48 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="22">
+      <c r="J32" s="15">
         <f>IF(C32="", 0, SUM(C32:I32))</f>
         <v>0</v>
       </c>
-      <c r="K32" s="15"/>
-    </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="23"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="24" t="str">
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="26"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="16" t="str">
         <f>IF(C32="", "", J31+C32)</f>
         <v/>
       </c>
-      <c r="D33" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="26">
+      <c r="D33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="18">
         <f>IF(C33="", J31, J31+J32)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="15"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="21">
+        <v>8.5</v>
+      </c>
+      <c r="K33" s="10"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="25">
         <v>16</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="1"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1621,55 +1635,55 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="22">
+      <c r="J34" s="15">
         <f>IF(C34="", 0, SUM(C34:I34))</f>
         <v>0</v>
       </c>
-      <c r="K34" s="15"/>
-    </row>
-    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="23"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="24" t="str">
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="26"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="16" t="str">
         <f>IF(C34="", "", J33+C34)</f>
         <v/>
       </c>
-      <c r="D35" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" s="26">
+      <c r="D35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="18">
         <f>IF(C35="", J33, J33+J34)</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="15"/>
-    </row>
-    <row r="36" spans="1:11" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
+        <v>8.5</v>
+      </c>
+      <c r="K35" s="10"/>
+    </row>
+    <row r="36" spans="1:11" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>

--- a/Timelog.xlsx
+++ b/Timelog.xlsx
@@ -447,6 +447,14 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -469,14 +477,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -797,7 +797,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,26 +810,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="19" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -852,7 +852,7 @@
       <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="20"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -869,7 +869,7 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
       <c r="B4" s="10"/>
@@ -901,7 +901,7 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="10"/>
       <c r="C5" s="16">
         <f>IF(C4="", "", C4)</f>
@@ -938,29 +938,39 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="6"/>
       <c r="J6" s="15">
         <f>IF(C6="", 0, SUM(C6:I6))</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="16" t="str">
+      <c r="C7" s="16">
         <f>IF(C6="", "", J5+C6)</f>
-        <v/>
+        <v>8.5</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>10</v>
@@ -982,12 +992,12 @@
       </c>
       <c r="J7" s="18">
         <f>IF(C7="", J5, J5+J6)</f>
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="19">
         <v>3</v>
       </c>
       <c r="B8" s="10"/>
@@ -1005,7 +1015,7 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="10"/>
       <c r="C9" s="16" t="str">
         <f>IF(C8="", "", J7+C8)</f>
@@ -1031,12 +1041,12 @@
       </c>
       <c r="J9" s="18">
         <f>IF(C9="", J7, J7+J8)</f>
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="19">
         <v>4</v>
       </c>
       <c r="B10" s="10"/>
@@ -1054,7 +1064,7 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="10"/>
       <c r="C11" s="16" t="str">
         <f>IF(C10="", "", J9+C10)</f>
@@ -1080,12 +1090,12 @@
       </c>
       <c r="J11" s="18">
         <f>IF(C11="", J9, J9+J10)</f>
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="A12" s="19">
         <v>5</v>
       </c>
       <c r="B12" s="10"/>
@@ -1103,7 +1113,7 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="10"/>
       <c r="C13" s="16" t="str">
         <f>IF(C12="", "", J11+C12)</f>
@@ -1129,12 +1139,12 @@
       </c>
       <c r="J13" s="18">
         <f>IF(C13="", J11, J11+J12)</f>
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="19">
         <v>6</v>
       </c>
       <c r="B14" s="10"/>
@@ -1152,7 +1162,7 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="10"/>
       <c r="C15" s="16" t="str">
         <f>IF(C14="", "", J13+C14)</f>
@@ -1178,12 +1188,12 @@
       </c>
       <c r="J15" s="18">
         <f>IF(C15="", J13, J13+J14)</f>
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="19">
         <v>7</v>
       </c>
       <c r="B16" s="10"/>
@@ -1201,7 +1211,7 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="10"/>
       <c r="C17" s="16" t="str">
         <f>IF(C16="", "", J15+C16)</f>
@@ -1227,12 +1237,12 @@
       </c>
       <c r="J17" s="18">
         <f>IF(C17="", J15, J15+J16)</f>
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="19">
         <v>8</v>
       </c>
       <c r="B18" s="10"/>
@@ -1250,7 +1260,7 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="10"/>
       <c r="C19" s="16" t="str">
         <f>IF(C18="", "", J17+C18)</f>
@@ -1276,12 +1286,12 @@
       </c>
       <c r="J19" s="18">
         <f>IF(C19="", J17, J17+J18)</f>
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="19">
         <v>9</v>
       </c>
       <c r="B20" s="10"/>
@@ -1299,7 +1309,7 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="10"/>
       <c r="C21" s="16" t="str">
         <f>IF(C20="", "", J19+C20)</f>
@@ -1325,12 +1335,12 @@
       </c>
       <c r="J21" s="18">
         <f>IF(C21="", J19, J19+J20)</f>
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="19">
         <v>10</v>
       </c>
       <c r="B22" s="10"/>
@@ -1348,7 +1358,7 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="10"/>
       <c r="C23" s="16" t="str">
         <f>IF(C22="", "", J21+C22)</f>
@@ -1374,12 +1384,12 @@
       </c>
       <c r="J23" s="18">
         <f>IF(C23="", J21, J21+J22)</f>
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+      <c r="A24" s="19">
         <v>11</v>
       </c>
       <c r="B24" s="10"/>
@@ -1397,7 +1407,7 @@
       <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="10"/>
       <c r="C25" s="16" t="str">
         <f>IF(C24="", "", J23+C24)</f>
@@ -1423,12 +1433,12 @@
       </c>
       <c r="J25" s="18">
         <f>IF(C25="", J23, J23+J24)</f>
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="19">
         <v>12</v>
       </c>
       <c r="B26" s="10"/>
@@ -1446,7 +1456,7 @@
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="10"/>
       <c r="C27" s="16" t="str">
         <f>IF(C26="", "", J25+C26)</f>
@@ -1472,12 +1482,12 @@
       </c>
       <c r="J27" s="18">
         <f>IF(C27="", J25, J25+J26)</f>
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="A28" s="19">
         <v>13</v>
       </c>
       <c r="B28" s="10"/>
@@ -1495,7 +1505,7 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="10"/>
       <c r="C29" s="16" t="str">
         <f>IF(C28="", "", J27+C28)</f>
@@ -1521,12 +1531,12 @@
       </c>
       <c r="J29" s="18">
         <f>IF(C29="", J27, J27+J28)</f>
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="19">
         <v>14</v>
       </c>
       <c r="B30" s="10"/>
@@ -1544,7 +1554,7 @@
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="10"/>
       <c r="C31" s="16" t="str">
         <f>IF(C30="", "", J29+C30)</f>
@@ -1570,12 +1580,12 @@
       </c>
       <c r="J31" s="18">
         <f>IF(C31="", J29, J29+J30)</f>
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
+      <c r="A32" s="19">
         <v>15</v>
       </c>
       <c r="B32" s="10"/>
@@ -1593,7 +1603,7 @@
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="10"/>
       <c r="C33" s="16" t="str">
         <f>IF(C32="", "", J31+C32)</f>
@@ -1619,12 +1629,12 @@
       </c>
       <c r="J33" s="18">
         <f>IF(C33="", J31, J31+J32)</f>
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="A34" s="19">
         <v>16</v>
       </c>
       <c r="B34" s="10"/>
@@ -1642,7 +1652,7 @@
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="10"/>
       <c r="C35" s="16" t="str">
         <f>IF(C34="", "", J33+C34)</f>
@@ -1668,7 +1678,7 @@
       </c>
       <c r="J35" s="18">
         <f>IF(C35="", J33, J33+J34)</f>
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="K35" s="10"/>
     </row>
@@ -1688,6 +1698,16 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
@@ -1697,16 +1717,6 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Timelog.xlsx
+++ b/Timelog.xlsx
@@ -447,36 +447,36 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -797,7 +797,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,26 +810,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="21" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -852,7 +852,7 @@
       <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -869,7 +869,7 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
       <c r="B4" s="10"/>
@@ -901,7 +901,7 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10"/>
       <c r="C5" s="16">
         <f>IF(C4="", "", C4)</f>
@@ -938,7 +938,7 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
       <c r="B6" s="10"/>
@@ -957,16 +957,20 @@
       <c r="G6" s="5">
         <v>2</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
+      <c r="H6" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="I6" s="6">
+        <v>5</v>
+      </c>
       <c r="J6" s="15">
         <f>IF(C6="", 0, SUM(C6:I6))</f>
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="10"/>
       <c r="C7" s="16">
         <f>IF(C6="", "", J5+C6)</f>
@@ -992,12 +996,12 @@
       </c>
       <c r="J7" s="18">
         <f>IF(C7="", J5, J5+J6)</f>
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="25">
         <v>3</v>
       </c>
       <c r="B8" s="10"/>
@@ -1015,7 +1019,7 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="10"/>
       <c r="C9" s="16" t="str">
         <f>IF(C8="", "", J7+C8)</f>
@@ -1041,12 +1045,12 @@
       </c>
       <c r="J9" s="18">
         <f>IF(C9="", J7, J7+J8)</f>
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="25">
         <v>4</v>
       </c>
       <c r="B10" s="10"/>
@@ -1064,7 +1068,7 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10"/>
       <c r="C11" s="16" t="str">
         <f>IF(C10="", "", J9+C10)</f>
@@ -1090,12 +1094,12 @@
       </c>
       <c r="J11" s="18">
         <f>IF(C11="", J9, J9+J10)</f>
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="25">
         <v>5</v>
       </c>
       <c r="B12" s="10"/>
@@ -1113,7 +1117,7 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="10"/>
       <c r="C13" s="16" t="str">
         <f>IF(C12="", "", J11+C12)</f>
@@ -1139,12 +1143,12 @@
       </c>
       <c r="J13" s="18">
         <f>IF(C13="", J11, J11+J12)</f>
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="25">
         <v>6</v>
       </c>
       <c r="B14" s="10"/>
@@ -1162,7 +1166,7 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="10"/>
       <c r="C15" s="16" t="str">
         <f>IF(C14="", "", J13+C14)</f>
@@ -1188,12 +1192,12 @@
       </c>
       <c r="J15" s="18">
         <f>IF(C15="", J13, J13+J14)</f>
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="25">
         <v>7</v>
       </c>
       <c r="B16" s="10"/>
@@ -1211,7 +1215,7 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="10"/>
       <c r="C17" s="16" t="str">
         <f>IF(C16="", "", J15+C16)</f>
@@ -1237,12 +1241,12 @@
       </c>
       <c r="J17" s="18">
         <f>IF(C17="", J15, J15+J16)</f>
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="25">
         <v>8</v>
       </c>
       <c r="B18" s="10"/>
@@ -1260,7 +1264,7 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="10"/>
       <c r="C19" s="16" t="str">
         <f>IF(C18="", "", J17+C18)</f>
@@ -1286,12 +1290,12 @@
       </c>
       <c r="J19" s="18">
         <f>IF(C19="", J17, J17+J18)</f>
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="25">
         <v>9</v>
       </c>
       <c r="B20" s="10"/>
@@ -1309,7 +1313,7 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="10"/>
       <c r="C21" s="16" t="str">
         <f>IF(C20="", "", J19+C20)</f>
@@ -1335,12 +1339,12 @@
       </c>
       <c r="J21" s="18">
         <f>IF(C21="", J19, J19+J20)</f>
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="25">
         <v>10</v>
       </c>
       <c r="B22" s="10"/>
@@ -1358,7 +1362,7 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="10"/>
       <c r="C23" s="16" t="str">
         <f>IF(C22="", "", J21+C22)</f>
@@ -1384,12 +1388,12 @@
       </c>
       <c r="J23" s="18">
         <f>IF(C23="", J21, J21+J22)</f>
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="25">
         <v>11</v>
       </c>
       <c r="B24" s="10"/>
@@ -1407,7 +1411,7 @@
       <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="10"/>
       <c r="C25" s="16" t="str">
         <f>IF(C24="", "", J23+C24)</f>
@@ -1433,12 +1437,12 @@
       </c>
       <c r="J25" s="18">
         <f>IF(C25="", J23, J23+J24)</f>
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="25">
         <v>12</v>
       </c>
       <c r="B26" s="10"/>
@@ -1456,7 +1460,7 @@
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="10"/>
       <c r="C27" s="16" t="str">
         <f>IF(C26="", "", J25+C26)</f>
@@ -1482,12 +1486,12 @@
       </c>
       <c r="J27" s="18">
         <f>IF(C27="", J25, J25+J26)</f>
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="25">
         <v>13</v>
       </c>
       <c r="B28" s="10"/>
@@ -1505,7 +1509,7 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="10"/>
       <c r="C29" s="16" t="str">
         <f>IF(C28="", "", J27+C28)</f>
@@ -1531,12 +1535,12 @@
       </c>
       <c r="J29" s="18">
         <f>IF(C29="", J27, J27+J28)</f>
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="25">
         <v>14</v>
       </c>
       <c r="B30" s="10"/>
@@ -1554,7 +1558,7 @@
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="10"/>
       <c r="C31" s="16" t="str">
         <f>IF(C30="", "", J29+C30)</f>
@@ -1580,12 +1584,12 @@
       </c>
       <c r="J31" s="18">
         <f>IF(C31="", J29, J29+J30)</f>
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="25">
         <v>15</v>
       </c>
       <c r="B32" s="10"/>
@@ -1603,7 +1607,7 @@
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="10"/>
       <c r="C33" s="16" t="str">
         <f>IF(C32="", "", J31+C32)</f>
@@ -1629,12 +1633,12 @@
       </c>
       <c r="J33" s="18">
         <f>IF(C33="", J31, J31+J32)</f>
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="A34" s="25">
         <v>16</v>
       </c>
       <c r="B34" s="10"/>
@@ -1652,7 +1656,7 @@
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="10"/>
       <c r="C35" s="16" t="str">
         <f>IF(C34="", "", J33+C34)</f>
@@ -1678,7 +1682,7 @@
       </c>
       <c r="J35" s="18">
         <f>IF(C35="", J33, J33+J34)</f>
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="K35" s="10"/>
     </row>
@@ -1698,16 +1702,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
@@ -1717,6 +1711,16 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Timelog.xlsx
+++ b/Timelog.xlsx
@@ -447,6 +447,14 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -469,14 +477,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -797,7 +797,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,26 +810,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="19" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -852,7 +852,7 @@
       <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="20"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -869,7 +869,7 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
       <c r="B4" s="10"/>
@@ -901,7 +901,7 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="10"/>
       <c r="C5" s="16">
         <f>IF(C4="", "", C4)</f>
@@ -938,7 +938,7 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
       <c r="B6" s="10"/>
@@ -970,7 +970,7 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="10"/>
       <c r="C7" s="16">
         <f>IF(C6="", "", J5+C6)</f>
@@ -1001,29 +1001,43 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="19">
         <v>3</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="7"/>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
       <c r="J8" s="15">
         <f>IF(C8="", 0, SUM(C8:I8))</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="16" t="str">
+      <c r="C9" s="16">
         <f>IF(C8="", "", J7+C8)</f>
-        <v/>
+        <v>19.5</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>10</v>
@@ -1045,12 +1059,12 @@
       </c>
       <c r="J9" s="18">
         <f>IF(C9="", J7, J7+J8)</f>
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="19">
         <v>4</v>
       </c>
       <c r="B10" s="10"/>
@@ -1068,7 +1082,7 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="10"/>
       <c r="C11" s="16" t="str">
         <f>IF(C10="", "", J9+C10)</f>
@@ -1094,12 +1108,12 @@
       </c>
       <c r="J11" s="18">
         <f>IF(C11="", J9, J9+J10)</f>
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="A12" s="19">
         <v>5</v>
       </c>
       <c r="B12" s="10"/>
@@ -1117,7 +1131,7 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="10"/>
       <c r="C13" s="16" t="str">
         <f>IF(C12="", "", J11+C12)</f>
@@ -1143,12 +1157,12 @@
       </c>
       <c r="J13" s="18">
         <f>IF(C13="", J11, J11+J12)</f>
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="19">
         <v>6</v>
       </c>
       <c r="B14" s="10"/>
@@ -1166,7 +1180,7 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="10"/>
       <c r="C15" s="16" t="str">
         <f>IF(C14="", "", J13+C14)</f>
@@ -1192,12 +1206,12 @@
       </c>
       <c r="J15" s="18">
         <f>IF(C15="", J13, J13+J14)</f>
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="19">
         <v>7</v>
       </c>
       <c r="B16" s="10"/>
@@ -1215,7 +1229,7 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="10"/>
       <c r="C17" s="16" t="str">
         <f>IF(C16="", "", J15+C16)</f>
@@ -1241,12 +1255,12 @@
       </c>
       <c r="J17" s="18">
         <f>IF(C17="", J15, J15+J16)</f>
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="19">
         <v>8</v>
       </c>
       <c r="B18" s="10"/>
@@ -1264,7 +1278,7 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="10"/>
       <c r="C19" s="16" t="str">
         <f>IF(C18="", "", J17+C18)</f>
@@ -1290,12 +1304,12 @@
       </c>
       <c r="J19" s="18">
         <f>IF(C19="", J17, J17+J18)</f>
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="19">
         <v>9</v>
       </c>
       <c r="B20" s="10"/>
@@ -1313,7 +1327,7 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="10"/>
       <c r="C21" s="16" t="str">
         <f>IF(C20="", "", J19+C20)</f>
@@ -1339,12 +1353,12 @@
       </c>
       <c r="J21" s="18">
         <f>IF(C21="", J19, J19+J20)</f>
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="19">
         <v>10</v>
       </c>
       <c r="B22" s="10"/>
@@ -1362,7 +1376,7 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="10"/>
       <c r="C23" s="16" t="str">
         <f>IF(C22="", "", J21+C22)</f>
@@ -1388,12 +1402,12 @@
       </c>
       <c r="J23" s="18">
         <f>IF(C23="", J21, J21+J22)</f>
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+      <c r="A24" s="19">
         <v>11</v>
       </c>
       <c r="B24" s="10"/>
@@ -1411,7 +1425,7 @@
       <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="10"/>
       <c r="C25" s="16" t="str">
         <f>IF(C24="", "", J23+C24)</f>
@@ -1437,12 +1451,12 @@
       </c>
       <c r="J25" s="18">
         <f>IF(C25="", J23, J23+J24)</f>
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="19">
         <v>12</v>
       </c>
       <c r="B26" s="10"/>
@@ -1460,7 +1474,7 @@
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="10"/>
       <c r="C27" s="16" t="str">
         <f>IF(C26="", "", J25+C26)</f>
@@ -1486,12 +1500,12 @@
       </c>
       <c r="J27" s="18">
         <f>IF(C27="", J25, J25+J26)</f>
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="A28" s="19">
         <v>13</v>
       </c>
       <c r="B28" s="10"/>
@@ -1509,7 +1523,7 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="10"/>
       <c r="C29" s="16" t="str">
         <f>IF(C28="", "", J27+C28)</f>
@@ -1535,12 +1549,12 @@
       </c>
       <c r="J29" s="18">
         <f>IF(C29="", J27, J27+J28)</f>
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="19">
         <v>14</v>
       </c>
       <c r="B30" s="10"/>
@@ -1558,7 +1572,7 @@
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="10"/>
       <c r="C31" s="16" t="str">
         <f>IF(C30="", "", J29+C30)</f>
@@ -1584,12 +1598,12 @@
       </c>
       <c r="J31" s="18">
         <f>IF(C31="", J29, J29+J30)</f>
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
+      <c r="A32" s="19">
         <v>15</v>
       </c>
       <c r="B32" s="10"/>
@@ -1607,7 +1621,7 @@
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="10"/>
       <c r="C33" s="16" t="str">
         <f>IF(C32="", "", J31+C32)</f>
@@ -1633,12 +1647,12 @@
       </c>
       <c r="J33" s="18">
         <f>IF(C33="", J31, J31+J32)</f>
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="A34" s="19">
         <v>16</v>
       </c>
       <c r="B34" s="10"/>
@@ -1656,7 +1670,7 @@
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="10"/>
       <c r="C35" s="16" t="str">
         <f>IF(C34="", "", J33+C34)</f>
@@ -1682,7 +1696,7 @@
       </c>
       <c r="J35" s="18">
         <f>IF(C35="", J33, J33+J34)</f>
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="K35" s="10"/>
     </row>
@@ -1702,6 +1716,16 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
@@ -1711,16 +1735,6 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Timelog.xlsx
+++ b/Timelog.xlsx
@@ -447,36 +447,36 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -797,7 +797,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,26 +810,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="21" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -852,7 +852,7 @@
       <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -869,7 +869,7 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
       <c r="B4" s="10"/>
@@ -901,7 +901,7 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10"/>
       <c r="C5" s="16">
         <f>IF(C4="", "", C4)</f>
@@ -938,7 +938,7 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
       <c r="B6" s="10"/>
@@ -970,7 +970,7 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="10"/>
       <c r="C7" s="16">
         <f>IF(C6="", "", J5+C6)</f>
@@ -1001,7 +1001,7 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="25">
         <v>3</v>
       </c>
       <c r="B8" s="10"/>
@@ -1033,7 +1033,7 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="10"/>
       <c r="C9" s="16">
         <f>IF(C8="", "", J7+C8)</f>
@@ -1064,29 +1064,43 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="25">
         <v>4</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="7"/>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
       <c r="J10" s="15">
         <f>IF(C10="", 0, SUM(C10:I10))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="16">
         <f>IF(C10="", "", J9+C10)</f>
-        <v/>
+        <v>29</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>10</v>
@@ -1108,34 +1122,48 @@
       </c>
       <c r="J11" s="18">
         <f>IF(C11="", J9, J9+J10)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="25">
         <v>5</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="7"/>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4</v>
+      </c>
       <c r="J12" s="15">
         <f>IF(C12="", 0, SUM(C12:I12))</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="16" t="str">
+      <c r="C13" s="16">
         <f>IF(C12="", "", J11+C12)</f>
-        <v/>
+        <v>30</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>10</v>
@@ -1157,12 +1185,12 @@
       </c>
       <c r="J13" s="18">
         <f>IF(C13="", J11, J11+J12)</f>
-        <v>29</v>
+        <v>37.5</v>
       </c>
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="25">
         <v>6</v>
       </c>
       <c r="B14" s="10"/>
@@ -1180,7 +1208,7 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="10"/>
       <c r="C15" s="16" t="str">
         <f>IF(C14="", "", J13+C14)</f>
@@ -1206,12 +1234,12 @@
       </c>
       <c r="J15" s="18">
         <f>IF(C15="", J13, J13+J14)</f>
-        <v>29</v>
+        <v>37.5</v>
       </c>
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="25">
         <v>7</v>
       </c>
       <c r="B16" s="10"/>
@@ -1229,7 +1257,7 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="10"/>
       <c r="C17" s="16" t="str">
         <f>IF(C16="", "", J15+C16)</f>
@@ -1255,12 +1283,12 @@
       </c>
       <c r="J17" s="18">
         <f>IF(C17="", J15, J15+J16)</f>
-        <v>29</v>
+        <v>37.5</v>
       </c>
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="25">
         <v>8</v>
       </c>
       <c r="B18" s="10"/>
@@ -1278,7 +1306,7 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="10"/>
       <c r="C19" s="16" t="str">
         <f>IF(C18="", "", J17+C18)</f>
@@ -1304,12 +1332,12 @@
       </c>
       <c r="J19" s="18">
         <f>IF(C19="", J17, J17+J18)</f>
-        <v>29</v>
+        <v>37.5</v>
       </c>
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="25">
         <v>9</v>
       </c>
       <c r="B20" s="10"/>
@@ -1327,7 +1355,7 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="10"/>
       <c r="C21" s="16" t="str">
         <f>IF(C20="", "", J19+C20)</f>
@@ -1353,12 +1381,12 @@
       </c>
       <c r="J21" s="18">
         <f>IF(C21="", J19, J19+J20)</f>
-        <v>29</v>
+        <v>37.5</v>
       </c>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="25">
         <v>10</v>
       </c>
       <c r="B22" s="10"/>
@@ -1376,7 +1404,7 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="10"/>
       <c r="C23" s="16" t="str">
         <f>IF(C22="", "", J21+C22)</f>
@@ -1402,12 +1430,12 @@
       </c>
       <c r="J23" s="18">
         <f>IF(C23="", J21, J21+J22)</f>
-        <v>29</v>
+        <v>37.5</v>
       </c>
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="25">
         <v>11</v>
       </c>
       <c r="B24" s="10"/>
@@ -1425,7 +1453,7 @@
       <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="10"/>
       <c r="C25" s="16" t="str">
         <f>IF(C24="", "", J23+C24)</f>
@@ -1451,12 +1479,12 @@
       </c>
       <c r="J25" s="18">
         <f>IF(C25="", J23, J23+J24)</f>
-        <v>29</v>
+        <v>37.5</v>
       </c>
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="25">
         <v>12</v>
       </c>
       <c r="B26" s="10"/>
@@ -1474,7 +1502,7 @@
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="10"/>
       <c r="C27" s="16" t="str">
         <f>IF(C26="", "", J25+C26)</f>
@@ -1500,12 +1528,12 @@
       </c>
       <c r="J27" s="18">
         <f>IF(C27="", J25, J25+J26)</f>
-        <v>29</v>
+        <v>37.5</v>
       </c>
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="25">
         <v>13</v>
       </c>
       <c r="B28" s="10"/>
@@ -1523,7 +1551,7 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="10"/>
       <c r="C29" s="16" t="str">
         <f>IF(C28="", "", J27+C28)</f>
@@ -1549,12 +1577,12 @@
       </c>
       <c r="J29" s="18">
         <f>IF(C29="", J27, J27+J28)</f>
-        <v>29</v>
+        <v>37.5</v>
       </c>
       <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="25">
         <v>14</v>
       </c>
       <c r="B30" s="10"/>
@@ -1572,7 +1600,7 @@
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="10"/>
       <c r="C31" s="16" t="str">
         <f>IF(C30="", "", J29+C30)</f>
@@ -1598,12 +1626,12 @@
       </c>
       <c r="J31" s="18">
         <f>IF(C31="", J29, J29+J30)</f>
-        <v>29</v>
+        <v>37.5</v>
       </c>
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="25">
         <v>15</v>
       </c>
       <c r="B32" s="10"/>
@@ -1621,7 +1649,7 @@
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="10"/>
       <c r="C33" s="16" t="str">
         <f>IF(C32="", "", J31+C32)</f>
@@ -1647,12 +1675,12 @@
       </c>
       <c r="J33" s="18">
         <f>IF(C33="", J31, J31+J32)</f>
-        <v>29</v>
+        <v>37.5</v>
       </c>
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="A34" s="25">
         <v>16</v>
       </c>
       <c r="B34" s="10"/>
@@ -1670,7 +1698,7 @@
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="10"/>
       <c r="C35" s="16" t="str">
         <f>IF(C34="", "", J33+C34)</f>
@@ -1696,7 +1724,7 @@
       </c>
       <c r="J35" s="18">
         <f>IF(C35="", J33, J33+J34)</f>
-        <v>29</v>
+        <v>37.5</v>
       </c>
       <c r="K35" s="10"/>
     </row>
@@ -1716,16 +1744,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
@@ -1735,6 +1753,16 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Timelog.xlsx
+++ b/Timelog.xlsx
@@ -447,6 +447,14 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -469,14 +477,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -797,7 +797,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,26 +810,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="19" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -852,7 +852,7 @@
       <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="20"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -869,7 +869,7 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
       <c r="B4" s="10"/>
@@ -901,7 +901,7 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="10"/>
       <c r="C5" s="16">
         <f>IF(C4="", "", C4)</f>
@@ -938,7 +938,7 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
       <c r="B6" s="10"/>
@@ -970,7 +970,7 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="10"/>
       <c r="C7" s="16">
         <f>IF(C6="", "", J5+C6)</f>
@@ -1001,7 +1001,7 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="19">
         <v>3</v>
       </c>
       <c r="B8" s="10"/>
@@ -1033,7 +1033,7 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="10"/>
       <c r="C9" s="16">
         <f>IF(C8="", "", J7+C8)</f>
@@ -1064,7 +1064,7 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="19">
         <v>4</v>
       </c>
       <c r="B10" s="10"/>
@@ -1096,7 +1096,7 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="10"/>
       <c r="C11" s="16">
         <f>IF(C10="", "", J9+C10)</f>
@@ -1127,7 +1127,7 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="A12" s="19">
         <v>5</v>
       </c>
       <c r="B12" s="10"/>
@@ -1159,7 +1159,7 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="10"/>
       <c r="C13" s="16">
         <f>IF(C12="", "", J11+C12)</f>
@@ -1190,11 +1190,13 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="19">
         <v>6</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1203,16 +1205,16 @@
       <c r="I14" s="7"/>
       <c r="J14" s="15">
         <f>IF(C14="", 0, SUM(C14:I14))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="16" t="str">
+      <c r="C15" s="16">
         <f>IF(C14="", "", J13+C14)</f>
-        <v/>
+        <v>39.5</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>10</v>
@@ -1234,12 +1236,12 @@
       </c>
       <c r="J15" s="18">
         <f>IF(C15="", J13, J13+J14)</f>
-        <v>37.5</v>
+        <v>39.5</v>
       </c>
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="19">
         <v>7</v>
       </c>
       <c r="B16" s="10"/>
@@ -1257,7 +1259,7 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="10"/>
       <c r="C17" s="16" t="str">
         <f>IF(C16="", "", J15+C16)</f>
@@ -1283,12 +1285,12 @@
       </c>
       <c r="J17" s="18">
         <f>IF(C17="", J15, J15+J16)</f>
-        <v>37.5</v>
+        <v>39.5</v>
       </c>
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="19">
         <v>8</v>
       </c>
       <c r="B18" s="10"/>
@@ -1306,7 +1308,7 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="10"/>
       <c r="C19" s="16" t="str">
         <f>IF(C18="", "", J17+C18)</f>
@@ -1332,12 +1334,12 @@
       </c>
       <c r="J19" s="18">
         <f>IF(C19="", J17, J17+J18)</f>
-        <v>37.5</v>
+        <v>39.5</v>
       </c>
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="19">
         <v>9</v>
       </c>
       <c r="B20" s="10"/>
@@ -1355,7 +1357,7 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="10"/>
       <c r="C21" s="16" t="str">
         <f>IF(C20="", "", J19+C20)</f>
@@ -1381,12 +1383,12 @@
       </c>
       <c r="J21" s="18">
         <f>IF(C21="", J19, J19+J20)</f>
-        <v>37.5</v>
+        <v>39.5</v>
       </c>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="19">
         <v>10</v>
       </c>
       <c r="B22" s="10"/>
@@ -1404,7 +1406,7 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="10"/>
       <c r="C23" s="16" t="str">
         <f>IF(C22="", "", J21+C22)</f>
@@ -1430,12 +1432,12 @@
       </c>
       <c r="J23" s="18">
         <f>IF(C23="", J21, J21+J22)</f>
-        <v>37.5</v>
+        <v>39.5</v>
       </c>
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+      <c r="A24" s="19">
         <v>11</v>
       </c>
       <c r="B24" s="10"/>
@@ -1453,7 +1455,7 @@
       <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="10"/>
       <c r="C25" s="16" t="str">
         <f>IF(C24="", "", J23+C24)</f>
@@ -1479,12 +1481,12 @@
       </c>
       <c r="J25" s="18">
         <f>IF(C25="", J23, J23+J24)</f>
-        <v>37.5</v>
+        <v>39.5</v>
       </c>
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="19">
         <v>12</v>
       </c>
       <c r="B26" s="10"/>
@@ -1502,7 +1504,7 @@
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="10"/>
       <c r="C27" s="16" t="str">
         <f>IF(C26="", "", J25+C26)</f>
@@ -1528,12 +1530,12 @@
       </c>
       <c r="J27" s="18">
         <f>IF(C27="", J25, J25+J26)</f>
-        <v>37.5</v>
+        <v>39.5</v>
       </c>
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="A28" s="19">
         <v>13</v>
       </c>
       <c r="B28" s="10"/>
@@ -1551,7 +1553,7 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="10"/>
       <c r="C29" s="16" t="str">
         <f>IF(C28="", "", J27+C28)</f>
@@ -1577,12 +1579,12 @@
       </c>
       <c r="J29" s="18">
         <f>IF(C29="", J27, J27+J28)</f>
-        <v>37.5</v>
+        <v>39.5</v>
       </c>
       <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="19">
         <v>14</v>
       </c>
       <c r="B30" s="10"/>
@@ -1600,7 +1602,7 @@
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="10"/>
       <c r="C31" s="16" t="str">
         <f>IF(C30="", "", J29+C30)</f>
@@ -1626,12 +1628,12 @@
       </c>
       <c r="J31" s="18">
         <f>IF(C31="", J29, J29+J30)</f>
-        <v>37.5</v>
+        <v>39.5</v>
       </c>
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
+      <c r="A32" s="19">
         <v>15</v>
       </c>
       <c r="B32" s="10"/>
@@ -1649,7 +1651,7 @@
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="10"/>
       <c r="C33" s="16" t="str">
         <f>IF(C32="", "", J31+C32)</f>
@@ -1675,12 +1677,12 @@
       </c>
       <c r="J33" s="18">
         <f>IF(C33="", J31, J31+J32)</f>
-        <v>37.5</v>
+        <v>39.5</v>
       </c>
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="A34" s="19">
         <v>16</v>
       </c>
       <c r="B34" s="10"/>
@@ -1698,7 +1700,7 @@
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="10"/>
       <c r="C35" s="16" t="str">
         <f>IF(C34="", "", J33+C34)</f>
@@ -1724,7 +1726,7 @@
       </c>
       <c r="J35" s="18">
         <f>IF(C35="", J33, J33+J34)</f>
-        <v>37.5</v>
+        <v>39.5</v>
       </c>
       <c r="K35" s="10"/>
     </row>
@@ -1744,6 +1746,16 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
@@ -1753,16 +1765,6 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Timelog.xlsx
+++ b/Timelog.xlsx
@@ -797,7 +797,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,17 +1195,21 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
         <v>2</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>2.5</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="7"/>
       <c r="J14" s="15">
         <f>IF(C14="", 0, SUM(C14:I14))</f>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="K14" s="10"/>
     </row>
@@ -1214,7 +1218,7 @@
       <c r="B15" s="10"/>
       <c r="C15" s="16">
         <f>IF(C14="", "", J13+C14)</f>
-        <v>39.5</v>
+        <v>37.5</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>10</v>
@@ -1236,7 +1240,7 @@
       </c>
       <c r="J15" s="18">
         <f>IF(C15="", J13, J13+J14)</f>
-        <v>39.5</v>
+        <v>42</v>
       </c>
       <c r="K15" s="10"/>
     </row>
@@ -1285,7 +1289,7 @@
       </c>
       <c r="J17" s="18">
         <f>IF(C17="", J15, J15+J16)</f>
-        <v>39.5</v>
+        <v>42</v>
       </c>
       <c r="K17" s="10"/>
     </row>
@@ -1334,7 +1338,7 @@
       </c>
       <c r="J19" s="18">
         <f>IF(C19="", J17, J17+J18)</f>
-        <v>39.5</v>
+        <v>42</v>
       </c>
       <c r="K19" s="10"/>
     </row>
@@ -1383,7 +1387,7 @@
       </c>
       <c r="J21" s="18">
         <f>IF(C21="", J19, J19+J20)</f>
-        <v>39.5</v>
+        <v>42</v>
       </c>
       <c r="K21" s="10"/>
     </row>
@@ -1432,7 +1436,7 @@
       </c>
       <c r="J23" s="18">
         <f>IF(C23="", J21, J21+J22)</f>
-        <v>39.5</v>
+        <v>42</v>
       </c>
       <c r="K23" s="10"/>
     </row>
@@ -1481,7 +1485,7 @@
       </c>
       <c r="J25" s="18">
         <f>IF(C25="", J23, J23+J24)</f>
-        <v>39.5</v>
+        <v>42</v>
       </c>
       <c r="K25" s="10"/>
     </row>
@@ -1530,7 +1534,7 @@
       </c>
       <c r="J27" s="18">
         <f>IF(C27="", J25, J25+J26)</f>
-        <v>39.5</v>
+        <v>42</v>
       </c>
       <c r="K27" s="10"/>
     </row>
@@ -1579,7 +1583,7 @@
       </c>
       <c r="J29" s="18">
         <f>IF(C29="", J27, J27+J28)</f>
-        <v>39.5</v>
+        <v>42</v>
       </c>
       <c r="K29" s="10"/>
     </row>
@@ -1628,7 +1632,7 @@
       </c>
       <c r="J31" s="18">
         <f>IF(C31="", J29, J29+J30)</f>
-        <v>39.5</v>
+        <v>42</v>
       </c>
       <c r="K31" s="10"/>
     </row>
@@ -1677,7 +1681,7 @@
       </c>
       <c r="J33" s="18">
         <f>IF(C33="", J31, J31+J32)</f>
-        <v>39.5</v>
+        <v>42</v>
       </c>
       <c r="K33" s="10"/>
     </row>
@@ -1726,7 +1730,7 @@
       </c>
       <c r="J35" s="18">
         <f>IF(C35="", J33, J33+J34)</f>
-        <v>39.5</v>
+        <v>42</v>
       </c>
       <c r="K35" s="10"/>
     </row>

--- a/Timelog.xlsx
+++ b/Timelog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -447,36 +447,36 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -797,7 +797,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,26 +810,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="21" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -852,7 +852,7 @@
       <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -869,7 +869,7 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
       <c r="B4" s="10"/>
@@ -901,7 +901,7 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10"/>
       <c r="C5" s="16">
         <f>IF(C4="", "", C4)</f>
@@ -938,7 +938,7 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
       <c r="B6" s="10"/>
@@ -970,7 +970,7 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="10"/>
       <c r="C7" s="16">
         <f>IF(C6="", "", J5+C6)</f>
@@ -1001,7 +1001,7 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="25">
         <v>3</v>
       </c>
       <c r="B8" s="10"/>
@@ -1033,7 +1033,7 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="10"/>
       <c r="C9" s="16">
         <f>IF(C8="", "", J7+C8)</f>
@@ -1064,7 +1064,7 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="25">
         <v>4</v>
       </c>
       <c r="B10" s="10"/>
@@ -1096,7 +1096,7 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10"/>
       <c r="C11" s="16">
         <f>IF(C10="", "", J9+C10)</f>
@@ -1127,7 +1127,7 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="25">
         <v>5</v>
       </c>
       <c r="B12" s="10"/>
@@ -1159,7 +1159,7 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="10"/>
       <c r="C13" s="16">
         <f>IF(C12="", "", J11+C12)</f>
@@ -1190,7 +1190,7 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="25">
         <v>6</v>
       </c>
       <c r="B14" s="10"/>
@@ -1203,18 +1203,26 @@
       <c r="E14" s="2">
         <v>2.5</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="7"/>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2</v>
+      </c>
       <c r="J14" s="15">
         <f>IF(C14="", 0, SUM(C14:I14))</f>
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="10"/>
       <c r="C15" s="16">
         <f>IF(C14="", "", J13+C14)</f>
@@ -1240,34 +1248,48 @@
       </c>
       <c r="J15" s="18">
         <f>IF(C15="", J13, J13+J14)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="25">
         <v>7</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="7"/>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
       <c r="J16" s="15">
         <f>IF(C16="", 0, SUM(C16:I16))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="16" t="str">
+      <c r="C17" s="16">
         <f>IF(C16="", "", J15+C16)</f>
-        <v/>
+        <v>46</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>10</v>
@@ -1289,34 +1311,48 @@
       </c>
       <c r="J17" s="18">
         <f>IF(C17="", J15, J15+J16)</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="25">
         <v>8</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="7"/>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
       <c r="J18" s="15">
         <f>IF(C18="", 0, SUM(C18:I18))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="16">
         <f>IF(C18="", "", J17+C18)</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>10</v>
@@ -1338,34 +1374,46 @@
       </c>
       <c r="J19" s="18">
         <f>IF(C19="", J17, J17+J18)</f>
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="25">
         <v>9</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="15">
         <f>IF(C20="", 0, SUM(C20:I20))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="16" t="str">
+      <c r="C21" s="16">
         <f>IF(C20="", "", J19+C20)</f>
-        <v/>
+        <v>51</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>10</v>
@@ -1387,12 +1435,12 @@
       </c>
       <c r="J21" s="18">
         <f>IF(C21="", J19, J19+J20)</f>
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="25">
         <v>10</v>
       </c>
       <c r="B22" s="10"/>
@@ -1410,7 +1458,7 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="10"/>
       <c r="C23" s="16" t="str">
         <f>IF(C22="", "", J21+C22)</f>
@@ -1436,12 +1484,12 @@
       </c>
       <c r="J23" s="18">
         <f>IF(C23="", J21, J21+J22)</f>
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="25">
         <v>11</v>
       </c>
       <c r="B24" s="10"/>
@@ -1459,7 +1507,7 @@
       <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="10"/>
       <c r="C25" s="16" t="str">
         <f>IF(C24="", "", J23+C24)</f>
@@ -1485,12 +1533,12 @@
       </c>
       <c r="J25" s="18">
         <f>IF(C25="", J23, J23+J24)</f>
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="25">
         <v>12</v>
       </c>
       <c r="B26" s="10"/>
@@ -1508,7 +1556,7 @@
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="10"/>
       <c r="C27" s="16" t="str">
         <f>IF(C26="", "", J25+C26)</f>
@@ -1534,12 +1582,12 @@
       </c>
       <c r="J27" s="18">
         <f>IF(C27="", J25, J25+J26)</f>
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="25">
         <v>13</v>
       </c>
       <c r="B28" s="10"/>
@@ -1557,7 +1605,7 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="10"/>
       <c r="C29" s="16" t="str">
         <f>IF(C28="", "", J27+C28)</f>
@@ -1583,12 +1631,12 @@
       </c>
       <c r="J29" s="18">
         <f>IF(C29="", J27, J27+J28)</f>
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="25">
         <v>14</v>
       </c>
       <c r="B30" s="10"/>
@@ -1606,7 +1654,7 @@
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="10"/>
       <c r="C31" s="16" t="str">
         <f>IF(C30="", "", J29+C30)</f>
@@ -1632,12 +1680,12 @@
       </c>
       <c r="J31" s="18">
         <f>IF(C31="", J29, J29+J30)</f>
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="25">
         <v>15</v>
       </c>
       <c r="B32" s="10"/>
@@ -1655,7 +1703,7 @@
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="10"/>
       <c r="C33" s="16" t="str">
         <f>IF(C32="", "", J31+C32)</f>
@@ -1681,12 +1729,12 @@
       </c>
       <c r="J33" s="18">
         <f>IF(C33="", J31, J31+J32)</f>
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="A34" s="25">
         <v>16</v>
       </c>
       <c r="B34" s="10"/>
@@ -1704,7 +1752,7 @@
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="10"/>
       <c r="C35" s="16" t="str">
         <f>IF(C34="", "", J33+C34)</f>
@@ -1730,7 +1778,7 @@
       </c>
       <c r="J35" s="18">
         <f>IF(C35="", J33, J33+J34)</f>
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="K35" s="10"/>
     </row>
@@ -1750,16 +1798,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
@@ -1769,6 +1807,16 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Timelog.xlsx
+++ b/Timelog.xlsx
@@ -447,6 +447,14 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -469,14 +477,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,26 +810,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="19" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -852,7 +852,7 @@
       <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="20"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -869,7 +869,7 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
       <c r="B4" s="10"/>
@@ -901,7 +901,7 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="10"/>
       <c r="C5" s="16">
         <f>IF(C4="", "", C4)</f>
@@ -938,7 +938,7 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
       <c r="B6" s="10"/>
@@ -970,7 +970,7 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="10"/>
       <c r="C7" s="16">
         <f>IF(C6="", "", J5+C6)</f>
@@ -1001,7 +1001,7 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="19">
         <v>3</v>
       </c>
       <c r="B8" s="10"/>
@@ -1033,7 +1033,7 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="10"/>
       <c r="C9" s="16">
         <f>IF(C8="", "", J7+C8)</f>
@@ -1064,7 +1064,7 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="19">
         <v>4</v>
       </c>
       <c r="B10" s="10"/>
@@ -1096,7 +1096,7 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="10"/>
       <c r="C11" s="16">
         <f>IF(C10="", "", J9+C10)</f>
@@ -1127,7 +1127,7 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="A12" s="19">
         <v>5</v>
       </c>
       <c r="B12" s="10"/>
@@ -1159,7 +1159,7 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="10"/>
       <c r="C13" s="16">
         <f>IF(C12="", "", J11+C12)</f>
@@ -1190,7 +1190,7 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="19">
         <v>6</v>
       </c>
       <c r="B14" s="10"/>
@@ -1222,7 +1222,7 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="10"/>
       <c r="C15" s="16">
         <f>IF(C14="", "", J13+C14)</f>
@@ -1253,7 +1253,7 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="19">
         <v>7</v>
       </c>
       <c r="B16" s="10"/>
@@ -1285,7 +1285,7 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="10"/>
       <c r="C17" s="16">
         <f>IF(C16="", "", J15+C16)</f>
@@ -1316,7 +1316,7 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="19">
         <v>8</v>
       </c>
       <c r="B18" s="10"/>
@@ -1348,7 +1348,7 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="10"/>
       <c r="C19" s="16">
         <f>IF(C18="", "", J17+C18)</f>
@@ -1379,7 +1379,7 @@
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="19">
         <v>9</v>
       </c>
       <c r="B20" s="10"/>
@@ -1401,7 +1401,9 @@
       <c r="H20" s="2">
         <v>0</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
       <c r="J20" s="15">
         <f>IF(C20="", 0, SUM(C20:I20))</f>
         <v>6</v>
@@ -1409,7 +1411,7 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="10"/>
       <c r="C21" s="16">
         <f>IF(C20="", "", J19+C20)</f>
@@ -1440,29 +1442,43 @@
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="19">
         <v>10</v>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="3"/>
+      <c r="C22" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
       <c r="J22" s="15">
         <f>IF(C22="", 0, SUM(C22:I22))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="16" t="str">
+      <c r="C23" s="16">
         <f>IF(C22="", "", J21+C22)</f>
-        <v/>
+        <v>60.5</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>10</v>
@@ -1484,34 +1500,48 @@
       </c>
       <c r="J23" s="18">
         <f>IF(C23="", J21, J21+J22)</f>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+      <c r="A24" s="19">
         <v>11</v>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="3"/>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
       <c r="J24" s="15">
         <f>IF(C24="", 0, SUM(C24:I24))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="16" t="str">
+      <c r="C25" s="16">
         <f>IF(C24="", "", J23+C24)</f>
-        <v/>
+        <v>65</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>10</v>
@@ -1533,17 +1563,21 @@
       </c>
       <c r="J25" s="18">
         <f>IF(C25="", J23, J23+J24)</f>
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="19">
         <v>12</v>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
+      <c r="C26" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.5</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1551,16 +1585,16 @@
       <c r="I26" s="3"/>
       <c r="J26" s="15">
         <f>IF(C26="", 0, SUM(C26:I26))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="10"/>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="16">
         <f>IF(C26="", "", J25+C26)</f>
-        <v/>
+        <v>72.5</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>10</v>
@@ -1582,12 +1616,12 @@
       </c>
       <c r="J27" s="18">
         <f>IF(C27="", J25, J25+J26)</f>
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="A28" s="19">
         <v>13</v>
       </c>
       <c r="B28" s="10"/>
@@ -1605,7 +1639,7 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="10"/>
       <c r="C29" s="16" t="str">
         <f>IF(C28="", "", J27+C28)</f>
@@ -1631,12 +1665,12 @@
       </c>
       <c r="J29" s="18">
         <f>IF(C29="", J27, J27+J28)</f>
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="19">
         <v>14</v>
       </c>
       <c r="B30" s="10"/>
@@ -1654,7 +1688,7 @@
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="10"/>
       <c r="C31" s="16" t="str">
         <f>IF(C30="", "", J29+C30)</f>
@@ -1680,12 +1714,12 @@
       </c>
       <c r="J31" s="18">
         <f>IF(C31="", J29, J29+J30)</f>
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
+      <c r="A32" s="19">
         <v>15</v>
       </c>
       <c r="B32" s="10"/>
@@ -1703,7 +1737,7 @@
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="10"/>
       <c r="C33" s="16" t="str">
         <f>IF(C32="", "", J31+C32)</f>
@@ -1729,12 +1763,12 @@
       </c>
       <c r="J33" s="18">
         <f>IF(C33="", J31, J31+J32)</f>
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="A34" s="19">
         <v>16</v>
       </c>
       <c r="B34" s="10"/>
@@ -1752,7 +1786,7 @@
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="10"/>
       <c r="C35" s="16" t="str">
         <f>IF(C34="", "", J33+C34)</f>
@@ -1778,7 +1812,7 @@
       </c>
       <c r="J35" s="18">
         <f>IF(C35="", J33, J33+J34)</f>
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="K35" s="10"/>
     </row>
@@ -1798,6 +1832,16 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
@@ -1807,16 +1851,6 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Timelog.xlsx
+++ b/Timelog.xlsx
@@ -447,36 +447,36 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,26 +810,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="21" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -852,7 +852,7 @@
       <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -869,7 +869,7 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
       <c r="B4" s="10"/>
@@ -901,7 +901,7 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10"/>
       <c r="C5" s="16">
         <f>IF(C4="", "", C4)</f>
@@ -938,7 +938,7 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
       <c r="B6" s="10"/>
@@ -970,7 +970,7 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="10"/>
       <c r="C7" s="16">
         <f>IF(C6="", "", J5+C6)</f>
@@ -1001,7 +1001,7 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="25">
         <v>3</v>
       </c>
       <c r="B8" s="10"/>
@@ -1033,7 +1033,7 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="10"/>
       <c r="C9" s="16">
         <f>IF(C8="", "", J7+C8)</f>
@@ -1064,7 +1064,7 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="25">
         <v>4</v>
       </c>
       <c r="B10" s="10"/>
@@ -1096,7 +1096,7 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10"/>
       <c r="C11" s="16">
         <f>IF(C10="", "", J9+C10)</f>
@@ -1127,7 +1127,7 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="25">
         <v>5</v>
       </c>
       <c r="B12" s="10"/>
@@ -1159,7 +1159,7 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="10"/>
       <c r="C13" s="16">
         <f>IF(C12="", "", J11+C12)</f>
@@ -1190,7 +1190,7 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="25">
         <v>6</v>
       </c>
       <c r="B14" s="10"/>
@@ -1222,7 +1222,7 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="10"/>
       <c r="C15" s="16">
         <f>IF(C14="", "", J13+C14)</f>
@@ -1253,7 +1253,7 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="25">
         <v>7</v>
       </c>
       <c r="B16" s="10"/>
@@ -1285,7 +1285,7 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="10"/>
       <c r="C17" s="16">
         <f>IF(C16="", "", J15+C16)</f>
@@ -1316,7 +1316,7 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="25">
         <v>8</v>
       </c>
       <c r="B18" s="10"/>
@@ -1348,7 +1348,7 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="10"/>
       <c r="C19" s="16">
         <f>IF(C18="", "", J17+C18)</f>
@@ -1379,7 +1379,7 @@
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="25">
         <v>9</v>
       </c>
       <c r="B20" s="10"/>
@@ -1411,7 +1411,7 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="10"/>
       <c r="C21" s="16">
         <f>IF(C20="", "", J19+C20)</f>
@@ -1442,7 +1442,7 @@
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="25">
         <v>10</v>
       </c>
       <c r="B22" s="10"/>
@@ -1474,7 +1474,7 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="10"/>
       <c r="C23" s="16">
         <f>IF(C22="", "", J21+C22)</f>
@@ -1505,7 +1505,7 @@
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="25">
         <v>11</v>
       </c>
       <c r="B24" s="10"/>
@@ -1537,7 +1537,7 @@
       <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="10"/>
       <c r="C25" s="16">
         <f>IF(C24="", "", J23+C24)</f>
@@ -1568,7 +1568,7 @@
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="25">
         <v>12</v>
       </c>
       <c r="B26" s="10"/>
@@ -1578,19 +1578,21 @@
       <c r="D26" s="2">
         <v>1.5</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2">
+        <v>4</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="3"/>
       <c r="J26" s="15">
         <f>IF(C26="", 0, SUM(C26:I26))</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="10"/>
       <c r="C27" s="16">
         <f>IF(C26="", "", J25+C26)</f>
@@ -1616,12 +1618,12 @@
       </c>
       <c r="J27" s="18">
         <f>IF(C27="", J25, J25+J26)</f>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="25">
         <v>13</v>
       </c>
       <c r="B28" s="10"/>
@@ -1639,7 +1641,7 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="10"/>
       <c r="C29" s="16" t="str">
         <f>IF(C28="", "", J27+C28)</f>
@@ -1665,12 +1667,12 @@
       </c>
       <c r="J29" s="18">
         <f>IF(C29="", J27, J27+J28)</f>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="25">
         <v>14</v>
       </c>
       <c r="B30" s="10"/>
@@ -1688,7 +1690,7 @@
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="10"/>
       <c r="C31" s="16" t="str">
         <f>IF(C30="", "", J29+C30)</f>
@@ -1714,12 +1716,12 @@
       </c>
       <c r="J31" s="18">
         <f>IF(C31="", J29, J29+J30)</f>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="25">
         <v>15</v>
       </c>
       <c r="B32" s="10"/>
@@ -1737,7 +1739,7 @@
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="10"/>
       <c r="C33" s="16" t="str">
         <f>IF(C32="", "", J31+C32)</f>
@@ -1763,12 +1765,12 @@
       </c>
       <c r="J33" s="18">
         <f>IF(C33="", J31, J31+J32)</f>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="A34" s="25">
         <v>16</v>
       </c>
       <c r="B34" s="10"/>
@@ -1786,7 +1788,7 @@
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="10"/>
       <c r="C35" s="16" t="str">
         <f>IF(C34="", "", J33+C34)</f>
@@ -1812,7 +1814,7 @@
       </c>
       <c r="J35" s="18">
         <f>IF(C35="", J33, J33+J34)</f>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K35" s="10"/>
     </row>
@@ -1832,16 +1834,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
@@ -1851,6 +1843,16 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Timelog.xlsx
+++ b/Timelog.xlsx
@@ -447,6 +447,14 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -469,14 +477,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -797,7 +797,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,26 +810,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="19" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -852,7 +852,7 @@
       <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="20"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -869,7 +869,7 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
       <c r="B4" s="10"/>
@@ -901,7 +901,7 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="10"/>
       <c r="C5" s="16">
         <f>IF(C4="", "", C4)</f>
@@ -938,7 +938,7 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
       <c r="B6" s="10"/>
@@ -970,7 +970,7 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="10"/>
       <c r="C7" s="16">
         <f>IF(C6="", "", J5+C6)</f>
@@ -1001,7 +1001,7 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="19">
         <v>3</v>
       </c>
       <c r="B8" s="10"/>
@@ -1033,7 +1033,7 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="10"/>
       <c r="C9" s="16">
         <f>IF(C8="", "", J7+C8)</f>
@@ -1064,7 +1064,7 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="19">
         <v>4</v>
       </c>
       <c r="B10" s="10"/>
@@ -1096,7 +1096,7 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="10"/>
       <c r="C11" s="16">
         <f>IF(C10="", "", J9+C10)</f>
@@ -1127,7 +1127,7 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="A12" s="19">
         <v>5</v>
       </c>
       <c r="B12" s="10"/>
@@ -1159,7 +1159,7 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="10"/>
       <c r="C13" s="16">
         <f>IF(C12="", "", J11+C12)</f>
@@ -1190,7 +1190,7 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="19">
         <v>6</v>
       </c>
       <c r="B14" s="10"/>
@@ -1222,7 +1222,7 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="10"/>
       <c r="C15" s="16">
         <f>IF(C14="", "", J13+C14)</f>
@@ -1253,7 +1253,7 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="19">
         <v>7</v>
       </c>
       <c r="B16" s="10"/>
@@ -1285,7 +1285,7 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="10"/>
       <c r="C17" s="16">
         <f>IF(C16="", "", J15+C16)</f>
@@ -1316,7 +1316,7 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="19">
         <v>8</v>
       </c>
       <c r="B18" s="10"/>
@@ -1348,7 +1348,7 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="10"/>
       <c r="C19" s="16">
         <f>IF(C18="", "", J17+C18)</f>
@@ -1379,7 +1379,7 @@
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="19">
         <v>9</v>
       </c>
       <c r="B20" s="10"/>
@@ -1411,7 +1411,7 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="10"/>
       <c r="C21" s="16">
         <f>IF(C20="", "", J19+C20)</f>
@@ -1442,7 +1442,7 @@
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="19">
         <v>10</v>
       </c>
       <c r="B22" s="10"/>
@@ -1474,7 +1474,7 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="10"/>
       <c r="C23" s="16">
         <f>IF(C22="", "", J21+C22)</f>
@@ -1505,7 +1505,7 @@
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+      <c r="A24" s="19">
         <v>11</v>
       </c>
       <c r="B24" s="10"/>
@@ -1537,7 +1537,7 @@
       <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="10"/>
       <c r="C25" s="16">
         <f>IF(C24="", "", J23+C24)</f>
@@ -1568,7 +1568,7 @@
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="19">
         <v>12</v>
       </c>
       <c r="B26" s="10"/>
@@ -1579,7 +1579,7 @@
         <v>1.5</v>
       </c>
       <c r="E26" s="2">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1587,12 +1587,12 @@
       <c r="I26" s="3"/>
       <c r="J26" s="15">
         <f>IF(C26="", 0, SUM(C26:I26))</f>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="10"/>
       <c r="C27" s="16">
         <f>IF(C26="", "", J25+C26)</f>
@@ -1618,12 +1618,12 @@
       </c>
       <c r="J27" s="18">
         <f>IF(C27="", J25, J25+J26)</f>
-        <v>78</v>
+        <v>78.5</v>
       </c>
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="A28" s="19">
         <v>13</v>
       </c>
       <c r="B28" s="10"/>
@@ -1641,7 +1641,7 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="10"/>
       <c r="C29" s="16" t="str">
         <f>IF(C28="", "", J27+C28)</f>
@@ -1667,12 +1667,12 @@
       </c>
       <c r="J29" s="18">
         <f>IF(C29="", J27, J27+J28)</f>
-        <v>78</v>
+        <v>78.5</v>
       </c>
       <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="19">
         <v>14</v>
       </c>
       <c r="B30" s="10"/>
@@ -1690,7 +1690,7 @@
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="10"/>
       <c r="C31" s="16" t="str">
         <f>IF(C30="", "", J29+C30)</f>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="J31" s="18">
         <f>IF(C31="", J29, J29+J30)</f>
-        <v>78</v>
+        <v>78.5</v>
       </c>
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
+      <c r="A32" s="19">
         <v>15</v>
       </c>
       <c r="B32" s="10"/>
@@ -1739,7 +1739,7 @@
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="10"/>
       <c r="C33" s="16" t="str">
         <f>IF(C32="", "", J31+C32)</f>
@@ -1765,12 +1765,12 @@
       </c>
       <c r="J33" s="18">
         <f>IF(C33="", J31, J31+J32)</f>
-        <v>78</v>
+        <v>78.5</v>
       </c>
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="A34" s="19">
         <v>16</v>
       </c>
       <c r="B34" s="10"/>
@@ -1788,7 +1788,7 @@
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="10"/>
       <c r="C35" s="16" t="str">
         <f>IF(C34="", "", J33+C34)</f>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="J35" s="18">
         <f>IF(C35="", J33, J33+J34)</f>
-        <v>78</v>
+        <v>78.5</v>
       </c>
       <c r="K35" s="10"/>
     </row>
@@ -1834,6 +1834,16 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
@@ -1843,16 +1853,6 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Timelog.xlsx
+++ b/Timelog.xlsx
@@ -447,36 +447,36 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,26 +810,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="21" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -852,7 +852,7 @@
       <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -869,7 +869,7 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
       <c r="B4" s="10"/>
@@ -901,7 +901,7 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10"/>
       <c r="C5" s="16">
         <f>IF(C4="", "", C4)</f>
@@ -938,7 +938,7 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
       <c r="B6" s="10"/>
@@ -970,7 +970,7 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="10"/>
       <c r="C7" s="16">
         <f>IF(C6="", "", J5+C6)</f>
@@ -1001,7 +1001,7 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="25">
         <v>3</v>
       </c>
       <c r="B8" s="10"/>
@@ -1033,7 +1033,7 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="10"/>
       <c r="C9" s="16">
         <f>IF(C8="", "", J7+C8)</f>
@@ -1064,7 +1064,7 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="25">
         <v>4</v>
       </c>
       <c r="B10" s="10"/>
@@ -1096,7 +1096,7 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10"/>
       <c r="C11" s="16">
         <f>IF(C10="", "", J9+C10)</f>
@@ -1127,7 +1127,7 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="25">
         <v>5</v>
       </c>
       <c r="B12" s="10"/>
@@ -1159,7 +1159,7 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="10"/>
       <c r="C13" s="16">
         <f>IF(C12="", "", J11+C12)</f>
@@ -1190,7 +1190,7 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="25">
         <v>6</v>
       </c>
       <c r="B14" s="10"/>
@@ -1222,7 +1222,7 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="10"/>
       <c r="C15" s="16">
         <f>IF(C14="", "", J13+C14)</f>
@@ -1253,7 +1253,7 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="25">
         <v>7</v>
       </c>
       <c r="B16" s="10"/>
@@ -1285,7 +1285,7 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="10"/>
       <c r="C17" s="16">
         <f>IF(C16="", "", J15+C16)</f>
@@ -1316,7 +1316,7 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="25">
         <v>8</v>
       </c>
       <c r="B18" s="10"/>
@@ -1348,7 +1348,7 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="10"/>
       <c r="C19" s="16">
         <f>IF(C18="", "", J17+C18)</f>
@@ -1379,7 +1379,7 @@
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="25">
         <v>9</v>
       </c>
       <c r="B20" s="10"/>
@@ -1411,7 +1411,7 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="10"/>
       <c r="C21" s="16">
         <f>IF(C20="", "", J19+C20)</f>
@@ -1442,7 +1442,7 @@
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="25">
         <v>10</v>
       </c>
       <c r="B22" s="10"/>
@@ -1474,7 +1474,7 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="10"/>
       <c r="C23" s="16">
         <f>IF(C22="", "", J21+C22)</f>
@@ -1505,7 +1505,7 @@
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="25">
         <v>11</v>
       </c>
       <c r="B24" s="10"/>
@@ -1537,7 +1537,7 @@
       <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="10"/>
       <c r="C25" s="16">
         <f>IF(C24="", "", J23+C24)</f>
@@ -1568,7 +1568,7 @@
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="25">
         <v>12</v>
       </c>
       <c r="B26" s="10"/>
@@ -1581,18 +1581,26 @@
       <c r="E26" s="2">
         <v>4.5</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="3"/>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
       <c r="J26" s="15">
         <f>IF(C26="", 0, SUM(C26:I26))</f>
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="10"/>
       <c r="C27" s="16">
         <f>IF(C26="", "", J25+C26)</f>
@@ -1618,34 +1626,48 @@
       </c>
       <c r="J27" s="18">
         <f>IF(C27="", J25, J25+J26)</f>
-        <v>78.5</v>
+        <v>79</v>
       </c>
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="25">
         <v>13</v>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="3"/>
+      <c r="C28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
       <c r="J28" s="15">
         <f>IF(C28="", 0, SUM(C28:I28))</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="16">
         <f>IF(C28="", "", J27+C28)</f>
-        <v/>
+        <v>79.5</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>10</v>
@@ -1667,34 +1689,48 @@
       </c>
       <c r="J29" s="18">
         <f>IF(C29="", J27, J27+J28)</f>
-        <v>78.5</v>
+        <v>81.5</v>
       </c>
       <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="25">
         <v>14</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="3"/>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
       <c r="J30" s="15">
         <f>IF(C30="", 0, SUM(C30:I30))</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="10"/>
-      <c r="C31" s="16" t="str">
+      <c r="C31" s="16">
         <f>IF(C30="", "", J29+C30)</f>
-        <v/>
+        <v>81.5</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>10</v>
@@ -1716,17 +1752,21 @@
       </c>
       <c r="J31" s="18">
         <f>IF(C31="", J29, J29+J30)</f>
-        <v>78.5</v>
+        <v>83</v>
       </c>
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="25">
         <v>15</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
+      <c r="C32" s="1">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1734,16 +1774,16 @@
       <c r="I32" s="3"/>
       <c r="J32" s="15">
         <f>IF(C32="", 0, SUM(C32:I32))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="16" t="str">
+      <c r="C33" s="16">
         <f>IF(C32="", "", J31+C32)</f>
-        <v/>
+        <v>87</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>10</v>
@@ -1765,12 +1805,12 @@
       </c>
       <c r="J33" s="18">
         <f>IF(C33="", J31, J31+J32)</f>
-        <v>78.5</v>
+        <v>90</v>
       </c>
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="A34" s="25">
         <v>16</v>
       </c>
       <c r="B34" s="10"/>
@@ -1788,7 +1828,7 @@
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="10"/>
       <c r="C35" s="16" t="str">
         <f>IF(C34="", "", J33+C34)</f>
@@ -1814,7 +1854,7 @@
       </c>
       <c r="J35" s="18">
         <f>IF(C35="", J33, J33+J34)</f>
-        <v>78.5</v>
+        <v>90</v>
       </c>
       <c r="K35" s="10"/>
     </row>
@@ -1834,16 +1874,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
@@ -1853,6 +1883,16 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Timelog.xlsx
+++ b/Timelog.xlsx
@@ -447,6 +447,14 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -469,14 +477,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -797,7 +797,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,26 +810,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="19" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -852,7 +852,7 @@
       <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="20"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -869,7 +869,7 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
       <c r="B4" s="10"/>
@@ -901,7 +901,7 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="10"/>
       <c r="C5" s="16">
         <f>IF(C4="", "", C4)</f>
@@ -938,7 +938,7 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
       <c r="B6" s="10"/>
@@ -970,7 +970,7 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="10"/>
       <c r="C7" s="16">
         <f>IF(C6="", "", J5+C6)</f>
@@ -1001,7 +1001,7 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="19">
         <v>3</v>
       </c>
       <c r="B8" s="10"/>
@@ -1033,7 +1033,7 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="10"/>
       <c r="C9" s="16">
         <f>IF(C8="", "", J7+C8)</f>
@@ -1064,7 +1064,7 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="19">
         <v>4</v>
       </c>
       <c r="B10" s="10"/>
@@ -1096,7 +1096,7 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="10"/>
       <c r="C11" s="16">
         <f>IF(C10="", "", J9+C10)</f>
@@ -1127,7 +1127,7 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="A12" s="19">
         <v>5</v>
       </c>
       <c r="B12" s="10"/>
@@ -1159,7 +1159,7 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="10"/>
       <c r="C13" s="16">
         <f>IF(C12="", "", J11+C12)</f>
@@ -1190,7 +1190,7 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="19">
         <v>6</v>
       </c>
       <c r="B14" s="10"/>
@@ -1222,7 +1222,7 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="10"/>
       <c r="C15" s="16">
         <f>IF(C14="", "", J13+C14)</f>
@@ -1253,7 +1253,7 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="19">
         <v>7</v>
       </c>
       <c r="B16" s="10"/>
@@ -1285,7 +1285,7 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="10"/>
       <c r="C17" s="16">
         <f>IF(C16="", "", J15+C16)</f>
@@ -1316,7 +1316,7 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="19">
         <v>8</v>
       </c>
       <c r="B18" s="10"/>
@@ -1348,7 +1348,7 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="10"/>
       <c r="C19" s="16">
         <f>IF(C18="", "", J17+C18)</f>
@@ -1379,7 +1379,7 @@
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="19">
         <v>9</v>
       </c>
       <c r="B20" s="10"/>
@@ -1411,7 +1411,7 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="10"/>
       <c r="C21" s="16">
         <f>IF(C20="", "", J19+C20)</f>
@@ -1442,7 +1442,7 @@
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="19">
         <v>10</v>
       </c>
       <c r="B22" s="10"/>
@@ -1474,7 +1474,7 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="10"/>
       <c r="C23" s="16">
         <f>IF(C22="", "", J21+C22)</f>
@@ -1505,7 +1505,7 @@
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+      <c r="A24" s="19">
         <v>11</v>
       </c>
       <c r="B24" s="10"/>
@@ -1537,7 +1537,7 @@
       <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="10"/>
       <c r="C25" s="16">
         <f>IF(C24="", "", J23+C24)</f>
@@ -1568,7 +1568,7 @@
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="19">
         <v>12</v>
       </c>
       <c r="B26" s="10"/>
@@ -1600,7 +1600,7 @@
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="10"/>
       <c r="C27" s="16">
         <f>IF(C26="", "", J25+C26)</f>
@@ -1631,7 +1631,7 @@
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="A28" s="19">
         <v>13</v>
       </c>
       <c r="B28" s="10"/>
@@ -1663,7 +1663,7 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="10"/>
       <c r="C29" s="16">
         <f>IF(C28="", "", J27+C28)</f>
@@ -1694,7 +1694,7 @@
       <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="19">
         <v>14</v>
       </c>
       <c r="B30" s="10"/>
@@ -1726,7 +1726,7 @@
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="10"/>
       <c r="C31" s="16">
         <f>IF(C30="", "", J29+C30)</f>
@@ -1757,7 +1757,7 @@
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
+      <c r="A32" s="19">
         <v>15</v>
       </c>
       <c r="B32" s="10"/>
@@ -1767,19 +1767,21 @@
       <c r="D32" s="2">
         <v>3</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>3.5</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="3"/>
       <c r="J32" s="15">
         <f>IF(C32="", 0, SUM(C32:I32))</f>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="10"/>
       <c r="C33" s="16">
         <f>IF(C32="", "", J31+C32)</f>
@@ -1805,12 +1807,12 @@
       </c>
       <c r="J33" s="18">
         <f>IF(C33="", J31, J31+J32)</f>
-        <v>90</v>
+        <v>93.5</v>
       </c>
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="A34" s="19">
         <v>16</v>
       </c>
       <c r="B34" s="10"/>
@@ -1828,7 +1830,7 @@
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="10"/>
       <c r="C35" s="16" t="str">
         <f>IF(C34="", "", J33+C34)</f>
@@ -1854,7 +1856,7 @@
       </c>
       <c r="J35" s="18">
         <f>IF(C35="", J33, J33+J34)</f>
-        <v>90</v>
+        <v>93.5</v>
       </c>
       <c r="K35" s="10"/>
     </row>
@@ -1874,6 +1876,16 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
@@ -1883,16 +1895,6 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Timelog.xlsx
+++ b/Timelog.xlsx
@@ -447,36 +447,36 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -797,7 +797,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,26 +810,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="21" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -852,7 +852,7 @@
       <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -869,7 +869,7 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
       <c r="B4" s="10"/>
@@ -901,7 +901,7 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10"/>
       <c r="C5" s="16">
         <f>IF(C4="", "", C4)</f>
@@ -938,7 +938,7 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
       <c r="B6" s="10"/>
@@ -970,7 +970,7 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="10"/>
       <c r="C7" s="16">
         <f>IF(C6="", "", J5+C6)</f>
@@ -1001,7 +1001,7 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="25">
         <v>3</v>
       </c>
       <c r="B8" s="10"/>
@@ -1033,7 +1033,7 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="10"/>
       <c r="C9" s="16">
         <f>IF(C8="", "", J7+C8)</f>
@@ -1064,7 +1064,7 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="25">
         <v>4</v>
       </c>
       <c r="B10" s="10"/>
@@ -1096,7 +1096,7 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10"/>
       <c r="C11" s="16">
         <f>IF(C10="", "", J9+C10)</f>
@@ -1127,7 +1127,7 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="25">
         <v>5</v>
       </c>
       <c r="B12" s="10"/>
@@ -1159,7 +1159,7 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="10"/>
       <c r="C13" s="16">
         <f>IF(C12="", "", J11+C12)</f>
@@ -1190,7 +1190,7 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="25">
         <v>6</v>
       </c>
       <c r="B14" s="10"/>
@@ -1222,7 +1222,7 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="10"/>
       <c r="C15" s="16">
         <f>IF(C14="", "", J13+C14)</f>
@@ -1253,7 +1253,7 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="25">
         <v>7</v>
       </c>
       <c r="B16" s="10"/>
@@ -1285,7 +1285,7 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="10"/>
       <c r="C17" s="16">
         <f>IF(C16="", "", J15+C16)</f>
@@ -1316,7 +1316,7 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="25">
         <v>8</v>
       </c>
       <c r="B18" s="10"/>
@@ -1348,7 +1348,7 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="10"/>
       <c r="C19" s="16">
         <f>IF(C18="", "", J17+C18)</f>
@@ -1379,7 +1379,7 @@
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="25">
         <v>9</v>
       </c>
       <c r="B20" s="10"/>
@@ -1411,7 +1411,7 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="10"/>
       <c r="C21" s="16">
         <f>IF(C20="", "", J19+C20)</f>
@@ -1442,7 +1442,7 @@
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="25">
         <v>10</v>
       </c>
       <c r="B22" s="10"/>
@@ -1474,7 +1474,7 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="10"/>
       <c r="C23" s="16">
         <f>IF(C22="", "", J21+C22)</f>
@@ -1505,7 +1505,7 @@
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="25">
         <v>11</v>
       </c>
       <c r="B24" s="10"/>
@@ -1537,7 +1537,7 @@
       <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="10"/>
       <c r="C25" s="16">
         <f>IF(C24="", "", J23+C24)</f>
@@ -1568,7 +1568,7 @@
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="25">
         <v>12</v>
       </c>
       <c r="B26" s="10"/>
@@ -1600,7 +1600,7 @@
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="10"/>
       <c r="C27" s="16">
         <f>IF(C26="", "", J25+C26)</f>
@@ -1631,7 +1631,7 @@
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="25">
         <v>13</v>
       </c>
       <c r="B28" s="10"/>
@@ -1663,7 +1663,7 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="10"/>
       <c r="C29" s="16">
         <f>IF(C28="", "", J27+C28)</f>
@@ -1694,7 +1694,7 @@
       <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="25">
         <v>14</v>
       </c>
       <c r="B30" s="10"/>
@@ -1726,7 +1726,7 @@
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="10"/>
       <c r="C31" s="16">
         <f>IF(C30="", "", J29+C30)</f>
@@ -1757,7 +1757,7 @@
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="25">
         <v>15</v>
       </c>
       <c r="B32" s="10"/>
@@ -1770,18 +1770,24 @@
       <c r="E32" s="2">
         <v>3.5</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="15">
         <f>IF(C32="", 0, SUM(C32:I32))</f>
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="10"/>
       <c r="C33" s="16">
         <f>IF(C32="", "", J31+C32)</f>
@@ -1807,12 +1813,12 @@
       </c>
       <c r="J33" s="18">
         <f>IF(C33="", J31, J31+J32)</f>
-        <v>93.5</v>
+        <v>95.5</v>
       </c>
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="A34" s="25">
         <v>16</v>
       </c>
       <c r="B34" s="10"/>
@@ -1830,7 +1836,7 @@
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="10"/>
       <c r="C35" s="16" t="str">
         <f>IF(C34="", "", J33+C34)</f>
@@ -1856,7 +1862,7 @@
       </c>
       <c r="J35" s="18">
         <f>IF(C35="", J33, J33+J34)</f>
-        <v>93.5</v>
+        <v>95.5</v>
       </c>
       <c r="K35" s="10"/>
     </row>
@@ -1876,16 +1882,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
@@ -1895,6 +1891,16 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Timelog.xlsx
+++ b/Timelog.xlsx
@@ -447,6 +447,14 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -469,14 +477,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -797,7 +797,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,26 +810,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="19" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -852,7 +852,7 @@
       <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="20"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -869,7 +869,7 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
       <c r="B4" s="10"/>
@@ -901,7 +901,7 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="10"/>
       <c r="C5" s="16">
         <f>IF(C4="", "", C4)</f>
@@ -938,7 +938,7 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
       <c r="B6" s="10"/>
@@ -970,7 +970,7 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="10"/>
       <c r="C7" s="16">
         <f>IF(C6="", "", J5+C6)</f>
@@ -1001,7 +1001,7 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="19">
         <v>3</v>
       </c>
       <c r="B8" s="10"/>
@@ -1033,7 +1033,7 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="10"/>
       <c r="C9" s="16">
         <f>IF(C8="", "", J7+C8)</f>
@@ -1064,7 +1064,7 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="19">
         <v>4</v>
       </c>
       <c r="B10" s="10"/>
@@ -1096,7 +1096,7 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="10"/>
       <c r="C11" s="16">
         <f>IF(C10="", "", J9+C10)</f>
@@ -1127,7 +1127,7 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="A12" s="19">
         <v>5</v>
       </c>
       <c r="B12" s="10"/>
@@ -1159,7 +1159,7 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="10"/>
       <c r="C13" s="16">
         <f>IF(C12="", "", J11+C12)</f>
@@ -1190,7 +1190,7 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="19">
         <v>6</v>
       </c>
       <c r="B14" s="10"/>
@@ -1222,7 +1222,7 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="10"/>
       <c r="C15" s="16">
         <f>IF(C14="", "", J13+C14)</f>
@@ -1253,7 +1253,7 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="19">
         <v>7</v>
       </c>
       <c r="B16" s="10"/>
@@ -1285,7 +1285,7 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="10"/>
       <c r="C17" s="16">
         <f>IF(C16="", "", J15+C16)</f>
@@ -1316,7 +1316,7 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="19">
         <v>8</v>
       </c>
       <c r="B18" s="10"/>
@@ -1348,7 +1348,7 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="10"/>
       <c r="C19" s="16">
         <f>IF(C18="", "", J17+C18)</f>
@@ -1379,7 +1379,7 @@
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="19">
         <v>9</v>
       </c>
       <c r="B20" s="10"/>
@@ -1411,7 +1411,7 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="10"/>
       <c r="C21" s="16">
         <f>IF(C20="", "", J19+C20)</f>
@@ -1442,7 +1442,7 @@
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="19">
         <v>10</v>
       </c>
       <c r="B22" s="10"/>
@@ -1474,7 +1474,7 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="10"/>
       <c r="C23" s="16">
         <f>IF(C22="", "", J21+C22)</f>
@@ -1505,7 +1505,7 @@
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+      <c r="A24" s="19">
         <v>11</v>
       </c>
       <c r="B24" s="10"/>
@@ -1537,7 +1537,7 @@
       <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="10"/>
       <c r="C25" s="16">
         <f>IF(C24="", "", J23+C24)</f>
@@ -1568,7 +1568,7 @@
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="19">
         <v>12</v>
       </c>
       <c r="B26" s="10"/>
@@ -1600,7 +1600,7 @@
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="10"/>
       <c r="C27" s="16">
         <f>IF(C26="", "", J25+C26)</f>
@@ -1631,7 +1631,7 @@
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="A28" s="19">
         <v>13</v>
       </c>
       <c r="B28" s="10"/>
@@ -1663,7 +1663,7 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="10"/>
       <c r="C29" s="16">
         <f>IF(C28="", "", J27+C28)</f>
@@ -1694,7 +1694,7 @@
       <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="19">
         <v>14</v>
       </c>
       <c r="B30" s="10"/>
@@ -1726,7 +1726,7 @@
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="10"/>
       <c r="C31" s="16">
         <f>IF(C30="", "", J29+C30)</f>
@@ -1757,7 +1757,7 @@
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
+      <c r="A32" s="19">
         <v>15</v>
       </c>
       <c r="B32" s="10"/>
@@ -1777,17 +1777,19 @@
         <v>0</v>
       </c>
       <c r="H32" s="2">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5.5</v>
+      </c>
       <c r="J32" s="15">
         <f>IF(C32="", 0, SUM(C32:I32))</f>
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="10"/>
       <c r="C33" s="16">
         <f>IF(C32="", "", J31+C32)</f>
@@ -1813,16 +1815,18 @@
       </c>
       <c r="J33" s="18">
         <f>IF(C33="", J31, J31+J32)</f>
-        <v>95.5</v>
+        <v>102.5</v>
       </c>
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="A34" s="19">
         <v>16</v>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1831,16 +1835,16 @@
       <c r="I34" s="3"/>
       <c r="J34" s="15">
         <f>IF(C34="", 0, SUM(C34:I34))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="16" t="str">
+      <c r="C35" s="16">
         <f>IF(C34="", "", J33+C34)</f>
-        <v/>
+        <v>104.5</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>10</v>
@@ -1862,7 +1866,7 @@
       </c>
       <c r="J35" s="18">
         <f>IF(C35="", J33, J33+J34)</f>
-        <v>95.5</v>
+        <v>104.5</v>
       </c>
       <c r="K35" s="10"/>
     </row>
@@ -1882,6 +1886,16 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
@@ -1891,16 +1905,6 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
